--- a/trunk/report/BaoCaoCopy/TESTCASE.xlsx
+++ b/trunk/report/BaoCaoCopy/TESTCASE.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngo Duy Kha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHU - STT\Desktop\paradise-hotel-manager\report\BaoCaoCopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -652,9 +652,6 @@
     <t>Hóa đơn gồm: khách hàng &amp; danh sách dịch vụ sẽ được lưu vào CSDL</t>
   </si>
   <si>
-    <t>1. LẬP PHIẾU BÁN HÀNG</t>
-  </si>
-  <si>
     <t>2. LẬP PHIẾU NỢ</t>
   </si>
   <si>
@@ -855,6 +852,9 @@
   </si>
   <si>
     <t>Form Lập phiếu dịch vụ sách sẽ đóng lại, quay về màn hình form chính</t>
+  </si>
+  <si>
+    <t>1. LẬP PHIẾU ĐẶT CHỖ</t>
   </si>
 </sst>
 </file>
@@ -1582,108 +1582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1699,18 +1597,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,13 +1626,124 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1855,47 +1855,12 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
         <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
@@ -1917,7 +1882,42 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Verdana"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
@@ -2090,15 +2090,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="21" x14ac:dyDescent="0.35">
       <c r="D3" s="31" t="s">
@@ -2112,47 +2112,47 @@
       <c r="H3" s="36"/>
     </row>
     <row r="4" spans="3:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="108" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
+      <c r="E5" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="7" spans="3:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="D7" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="34" t="s">
         <v>51</v>
       </c>
@@ -2161,27 +2161,27 @@
       <c r="C11" s="35">
         <v>1</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="55"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="110">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="72">
         <v>93</v>
       </c>
     </row>
@@ -2207,9 +2207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D126" sqref="D126"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2230,7 +2230,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" ht="36" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="37.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2267,38 +2267,38 @@
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="89"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
+      <c r="A4" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="87" t="s">
         <v>116</v>
       </c>
       <c r="E5" s="39" t="s">
@@ -2321,10 +2321,10 @@
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="40" t="s">
         <v>60</v>
       </c>
@@ -2345,10 +2345,10 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="80"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="40" t="s">
         <v>61</v>
       </c>
@@ -2373,10 +2373,10 @@
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="66" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="80"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="40" t="s">
         <v>62</v>
       </c>
@@ -2401,10 +2401,10 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="80"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="40" t="s">
         <v>63</v>
       </c>
@@ -2425,10 +2425,10 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="80"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="40" t="s">
         <v>64</v>
       </c>
@@ -2453,10 +2453,10 @@
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="80"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="40" t="s">
         <v>65</v>
       </c>
@@ -2481,10 +2481,10 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="40" t="s">
         <v>66</v>
       </c>
@@ -2509,10 +2509,10 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="80"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="40" t="s">
         <v>67</v>
       </c>
@@ -2537,10 +2537,10 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="80"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="41" t="s">
         <v>68</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -2563,14 +2563,14 @@
       <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="74" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="39" t="s">
         <v>68</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="80"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="40" t="s">
         <v>69</v>
       </c>
@@ -2623,10 +2623,10 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="80"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="42" t="s">
         <v>70</v>
       </c>
@@ -2651,10 +2651,10 @@
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="40" t="s">
         <v>71</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>99</v>
@@ -2679,10 +2679,10 @@
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="80"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="42" t="s">
         <v>72</v>
       </c>
@@ -2707,10 +2707,10 @@
       <c r="N19" s="53"/>
     </row>
     <row r="20" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="80"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="40" t="s">
         <v>73</v>
       </c>
@@ -2735,10 +2735,10 @@
       <c r="N20" s="53"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="80"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="42" t="s">
         <v>74</v>
       </c>
@@ -2763,12 +2763,12 @@
       <c r="N21" s="53"/>
     </row>
     <row r="22" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="74" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="39" t="s">
         <v>75</v>
       </c>
@@ -2793,10 +2793,10 @@
       <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="80"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="40" t="s">
         <v>76</v>
       </c>
@@ -2821,12 +2821,12 @@
       <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="74" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="45" t="s">
         <v>77</v>
       </c>
@@ -2851,10 +2851,10 @@
       <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="42" t="s">
         <v>78</v>
       </c>
@@ -2879,10 +2879,10 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="81"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="41" t="s">
         <v>79</v>
       </c>
@@ -2907,11 +2907,11 @@
       <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="54"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="23"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
@@ -2920,35 +2920,35 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="106"/>
+      <c r="N27" s="69"/>
     </row>
     <row r="28" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
+      <c r="A28" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="78" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="87" t="s">
         <v>117</v>
       </c>
       <c r="E29" s="39" t="s">
@@ -2975,10 +2975,10 @@
       <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="79"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="40" t="s">
         <v>81</v>
       </c>
@@ -3003,10 +3003,10 @@
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="80"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="40" t="s">
         <v>82</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="80"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="40" t="s">
         <v>83</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>38</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -3057,14 +3057,14 @@
       <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="74" t="s">
+      <c r="A33" s="109"/>
+      <c r="B33" s="100" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="38" t="s">
         <v>84</v>
       </c>
@@ -3089,10 +3089,10 @@
       <c r="N33" s="47"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="96"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="80"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5" t="s">
         <v>85</v>
       </c>
@@ -3117,12 +3117,12 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="51" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="93"/>
       <c r="E35" s="39" t="s">
         <v>87</v>
       </c>
@@ -3147,12 +3147,12 @@
       <c r="N35" s="28"/>
     </row>
     <row r="36" spans="1:14" ht="34.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="97"/>
-      <c r="B36" s="69"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="81"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="49" t="s">
         <v>77</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I36" s="51" t="s">
         <v>99</v>
@@ -3177,48 +3177,48 @@
       <c r="N36" s="52"/>
     </row>
     <row r="37" spans="1:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="54"/>
       <c r="C37" s="14"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="103"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
     </row>
     <row r="38" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="66"/>
+      <c r="A38" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="84"/>
     </row>
     <row r="39" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="78" t="s">
+      <c r="C39" s="95"/>
+      <c r="D39" s="87" t="s">
         <v>145</v>
       </c>
       <c r="E39" s="39" t="s">
@@ -3241,10 +3241,10 @@
       <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="79"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="40" t="s">
         <v>81</v>
       </c>
@@ -3265,10 +3265,10 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="80"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="93"/>
       <c r="E41" s="40" t="s">
         <v>82</v>
       </c>
@@ -3293,10 +3293,10 @@
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="66" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="80"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="40" t="s">
         <v>83</v>
       </c>
@@ -3321,10 +3321,10 @@
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="80"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="93"/>
       <c r="E43" s="40" t="s">
         <v>84</v>
       </c>
@@ -3345,10 +3345,10 @@
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="80"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="40" t="s">
         <v>85</v>
       </c>
@@ -3373,10 +3373,10 @@
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="80"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="40" t="s">
         <v>86</v>
       </c>
@@ -3401,10 +3401,10 @@
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="80"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="93"/>
       <c r="E46" s="40" t="s">
         <v>87</v>
       </c>
@@ -3429,10 +3429,10 @@
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="80"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="93"/>
       <c r="E47" s="40" t="s">
         <v>108</v>
       </c>
@@ -3457,10 +3457,10 @@
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="80"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="93"/>
       <c r="E48" s="41" t="s">
         <v>109</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
@@ -3483,14 +3483,14 @@
       <c r="N48" s="30"/>
     </row>
     <row r="49" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="67" t="s">
+      <c r="A49" s="101"/>
+      <c r="B49" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="80"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="42" t="s">
         <v>127</v>
       </c>
@@ -3515,10 +3515,10 @@
       <c r="N49" s="28"/>
     </row>
     <row r="50" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="80"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="93"/>
       <c r="E50" s="40" t="s">
         <v>128</v>
       </c>
@@ -3543,10 +3543,10 @@
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="80"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="93"/>
       <c r="E51" s="40" t="s">
         <v>129</v>
       </c>
@@ -3569,10 +3569,10 @@
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="80"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="40" t="s">
         <v>130</v>
       </c>
@@ -3597,10 +3597,10 @@
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="80"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="40" t="s">
         <v>131</v>
       </c>
@@ -3625,10 +3625,10 @@
       <c r="N53" s="53"/>
     </row>
     <row r="54" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="80"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="40" t="s">
         <v>132</v>
       </c>
@@ -3653,10 +3653,10 @@
       <c r="N54" s="53"/>
     </row>
     <row r="55" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="80"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="41" t="s">
         <v>133</v>
       </c>
@@ -3681,12 +3681,12 @@
       <c r="N55" s="53"/>
     </row>
     <row r="56" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="74" t="s">
+      <c r="A56" s="101"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="80"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="42" t="s">
         <v>134</v>
       </c>
@@ -3711,10 +3711,10 @@
       <c r="N56" s="28"/>
     </row>
     <row r="57" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="80"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="93"/>
       <c r="E57" s="41" t="s">
         <v>135</v>
       </c>
@@ -3739,12 +3739,12 @@
       <c r="N57" s="29"/>
     </row>
     <row r="58" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="74" t="s">
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="93"/>
       <c r="E58" s="40" t="s">
         <v>136</v>
       </c>
@@ -3769,10 +3769,10 @@
       <c r="N58" s="28"/>
     </row>
     <row r="59" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="80"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="93"/>
       <c r="E59" s="40" t="s">
         <v>137</v>
       </c>
@@ -3797,10 +3797,10 @@
       <c r="N59" s="29"/>
     </row>
     <row r="60" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="81"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="41" t="s">
         <v>138</v>
       </c>
@@ -3825,11 +3825,11 @@
       <c r="N60" s="30"/>
     </row>
     <row r="61" spans="1:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="104"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="54"/>
       <c r="C61" s="11"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="105"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="23"/>
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
@@ -3838,35 +3838,35 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
-      <c r="N61" s="106"/>
+      <c r="N61" s="69"/>
     </row>
     <row r="62" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="66"/>
+      <c r="A62" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="84"/>
     </row>
     <row r="63" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="78" t="s">
+      <c r="C63" s="95"/>
+      <c r="D63" s="87" t="s">
         <v>144</v>
       </c>
       <c r="E63" s="39" t="s">
@@ -3889,10 +3889,10 @@
       <c r="N63" s="28"/>
     </row>
     <row r="64" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="79"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="40" t="s">
         <v>147</v>
       </c>
@@ -3913,10 +3913,10 @@
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="80"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="40" t="s">
         <v>148</v>
       </c>
@@ -3941,10 +3941,10 @@
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="1:14" ht="66" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="80"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="40" t="s">
         <v>154</v>
       </c>
@@ -3969,10 +3969,10 @@
       <c r="N66" s="29"/>
     </row>
     <row r="67" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="80"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="93"/>
       <c r="E67" s="40" t="s">
         <v>155</v>
       </c>
@@ -3993,10 +3993,10 @@
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="80"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="93"/>
       <c r="E68" s="40" t="s">
         <v>156</v>
       </c>
@@ -4021,10 +4021,10 @@
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="80"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="93"/>
       <c r="E69" s="40" t="s">
         <v>157</v>
       </c>
@@ -4049,10 +4049,10 @@
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="80"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="40" t="s">
         <v>158</v>
       </c>
@@ -4077,10 +4077,10 @@
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="80"/>
+      <c r="A71" s="101"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="93"/>
       <c r="E71" s="40" t="s">
         <v>159</v>
       </c>
@@ -4105,10 +4105,10 @@
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="68"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="80"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="41" t="s">
         <v>160</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>38</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -4131,14 +4131,14 @@
       <c r="N72" s="30"/>
     </row>
     <row r="73" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="67" t="s">
+      <c r="A73" s="101"/>
+      <c r="B73" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="80"/>
+      <c r="D73" s="93"/>
       <c r="E73" s="40" t="s">
         <v>161</v>
       </c>
@@ -4163,10 +4163,10 @@
       <c r="N73" s="28"/>
     </row>
     <row r="74" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="80"/>
+      <c r="A74" s="101"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="93"/>
       <c r="E74" s="40" t="s">
         <v>162</v>
       </c>
@@ -4191,10 +4191,10 @@
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="80"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="93"/>
       <c r="E75" s="40" t="s">
         <v>163</v>
       </c>
@@ -4217,10 +4217,10 @@
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="80"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="93"/>
       <c r="E76" s="40" t="s">
         <v>164</v>
       </c>
@@ -4245,10 +4245,10 @@
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="80"/>
+      <c r="A77" s="101"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="40" t="s">
         <v>165</v>
       </c>
@@ -4273,10 +4273,10 @@
       <c r="N77" s="53"/>
     </row>
     <row r="78" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="80"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="93"/>
       <c r="E78" s="40" t="s">
         <v>166</v>
       </c>
@@ -4301,10 +4301,10 @@
       <c r="N78" s="53"/>
     </row>
     <row r="79" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="80"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="93"/>
       <c r="E79" s="41" t="s">
         <v>167</v>
       </c>
@@ -4329,12 +4329,12 @@
       <c r="N79" s="53"/>
     </row>
     <row r="80" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="68"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="74" t="s">
+      <c r="A80" s="101"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="80"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="40" t="s">
         <v>168</v>
       </c>
@@ -4359,10 +4359,10 @@
       <c r="N80" s="28"/>
     </row>
     <row r="81" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="80"/>
+      <c r="A81" s="101"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="93"/>
       <c r="E81" s="41" t="s">
         <v>169</v>
       </c>
@@ -4387,12 +4387,12 @@
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="74" t="s">
+      <c r="A82" s="101"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="80"/>
+      <c r="D82" s="93"/>
       <c r="E82" s="40" t="s">
         <v>170</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="80"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="40" t="s">
         <v>171</v>
       </c>
@@ -4445,10 +4445,10 @@
       <c r="N83" s="29"/>
     </row>
     <row r="84" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="81"/>
+      <c r="A84" s="102"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="88"/>
       <c r="E84" s="41" t="s">
         <v>172</v>
       </c>
@@ -4473,11 +4473,11 @@
       <c r="N84" s="30"/>
     </row>
     <row r="85" spans="1:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="104"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="54"/>
       <c r="C85" s="11"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="105"/>
+      <c r="E85" s="68"/>
       <c r="F85" s="23"/>
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
@@ -4486,35 +4486,35 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
-      <c r="N85" s="106"/>
+      <c r="N85" s="69"/>
     </row>
     <row r="86" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="66"/>
+      <c r="A86" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="83"/>
+      <c r="K86" s="83"/>
+      <c r="L86" s="83"/>
+      <c r="M86" s="83"/>
+      <c r="N86" s="84"/>
     </row>
     <row r="87" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="67" t="s">
+      <c r="A87" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="70" t="s">
+      <c r="B87" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="78" t="s">
+      <c r="C87" s="95"/>
+      <c r="D87" s="87" t="s">
         <v>144</v>
       </c>
       <c r="E87" s="39" t="s">
@@ -4537,10 +4537,10 @@
       <c r="N87" s="28"/>
     </row>
     <row r="88" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="79"/>
+      <c r="A88" s="101"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="40" t="s">
         <v>175</v>
       </c>
@@ -4561,10 +4561,10 @@
       <c r="N88" s="29"/>
     </row>
     <row r="89" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="80"/>
+      <c r="A89" s="101"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="93"/>
       <c r="E89" s="40" t="s">
         <v>176</v>
       </c>
@@ -4589,12 +4589,12 @@
       <c r="N89" s="29"/>
     </row>
     <row r="90" spans="1:14" ht="66" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="68"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="80"/>
+      <c r="A90" s="101"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="93"/>
       <c r="E90" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>179</v>
@@ -4617,12 +4617,12 @@
       <c r="N90" s="29"/>
     </row>
     <row r="91" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="68"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="80"/>
+      <c r="A91" s="101"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="93"/>
       <c r="E91" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>21</v>
@@ -4641,12 +4641,12 @@
       <c r="N91" s="29"/>
     </row>
     <row r="92" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="80"/>
+      <c r="A92" s="101"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="93"/>
       <c r="E92" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>150</v>
@@ -4655,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>181</v>
@@ -4669,12 +4669,12 @@
       <c r="N92" s="29"/>
     </row>
     <row r="93" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="80"/>
+      <c r="A93" s="101"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>151</v>
@@ -4683,7 +4683,7 @@
         <v>7</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>182</v>
@@ -4697,12 +4697,12 @@
       <c r="N93" s="29"/>
     </row>
     <row r="94" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="80"/>
+      <c r="A94" s="101"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="107"/>
+      <c r="D94" s="93"/>
       <c r="E94" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>31</v>
@@ -4725,12 +4725,12 @@
       <c r="N94" s="29"/>
     </row>
     <row r="95" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="80"/>
+      <c r="A95" s="101"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="107"/>
+      <c r="D95" s="93"/>
       <c r="E95" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>34</v>
@@ -4753,12 +4753,12 @@
       <c r="N95" s="29"/>
     </row>
     <row r="96" spans="1:14" ht="33.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="68"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="80"/>
+      <c r="A96" s="101"/>
+      <c r="B96" s="106"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="93"/>
       <c r="E96" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>37</v>
@@ -4781,16 +4781,16 @@
       <c r="N96" s="30"/>
     </row>
     <row r="97" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
-      <c r="B97" s="67" t="s">
+      <c r="A97" s="101"/>
+      <c r="B97" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="80"/>
+      <c r="D97" s="93"/>
       <c r="E97" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>126</v>
@@ -4813,15 +4813,15 @@
       <c r="N97" s="28"/>
     </row>
     <row r="98" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="80"/>
+      <c r="A98" s="101"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G98" s="5">
         <v>2</v>
@@ -4841,12 +4841,12 @@
       <c r="N98" s="29"/>
     </row>
     <row r="99" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="80"/>
+      <c r="A99" s="101"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="93"/>
       <c r="E99" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F99" s="21" t="s">
         <v>187</v>
@@ -4869,12 +4869,12 @@
       <c r="N99" s="29"/>
     </row>
     <row r="100" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="68"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="80"/>
+      <c r="A100" s="101"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="93"/>
       <c r="E100" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F100" s="21" t="s">
         <v>186</v>
@@ -4897,12 +4897,12 @@
       <c r="N100" s="29"/>
     </row>
     <row r="101" spans="1:14" ht="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="80"/>
+      <c r="A101" s="101"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="93"/>
       <c r="E101" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>188</v>
@@ -4925,12 +4925,12 @@
       <c r="N101" s="53"/>
     </row>
     <row r="102" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="80"/>
+      <c r="A102" s="101"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="107"/>
+      <c r="D102" s="93"/>
       <c r="E102" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>153</v>
@@ -4953,12 +4953,12 @@
       <c r="N102" s="53"/>
     </row>
     <row r="103" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="80"/>
+      <c r="A103" s="101"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="93"/>
       <c r="E103" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>30</v>
@@ -4981,14 +4981,14 @@
       <c r="N103" s="53"/>
     </row>
     <row r="104" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="74" t="s">
+      <c r="A104" s="101"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D104" s="80"/>
+      <c r="D104" s="93"/>
       <c r="E104" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F104" s="24" t="s">
         <v>194</v>
@@ -5011,12 +5011,12 @@
       <c r="N104" s="28"/>
     </row>
     <row r="105" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="80"/>
+      <c r="A105" s="101"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="93"/>
       <c r="E105" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F105" s="21" t="s">
         <v>195</v>
@@ -5039,14 +5039,14 @@
       <c r="N105" s="29"/>
     </row>
     <row r="106" spans="1:14" ht="50.25" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="74" t="s">
+      <c r="A106" s="101"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D106" s="80"/>
+      <c r="D106" s="93"/>
       <c r="E106" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F106" s="24" t="s">
         <v>194</v>
@@ -5069,12 +5069,12 @@
       <c r="N106" s="28"/>
     </row>
     <row r="107" spans="1:14" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="75"/>
-      <c r="D107" s="80"/>
+      <c r="A107" s="101"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="93"/>
       <c r="E107" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F107" s="21" t="s">
         <v>195</v>
@@ -5097,12 +5097,12 @@
       <c r="N107" s="29"/>
     </row>
     <row r="108" spans="1:14" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="69"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="81"/>
+      <c r="A108" s="102"/>
+      <c r="B108" s="102"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="88"/>
       <c r="E108" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F108" s="25" t="s">
         <v>196</v>
@@ -5125,11 +5125,11 @@
       <c r="N108" s="30"/>
     </row>
     <row r="109" spans="1:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="104"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="54"/>
       <c r="C109" s="11"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="105"/>
+      <c r="E109" s="68"/>
       <c r="F109" s="23"/>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -5138,72 +5138,72 @@
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
-      <c r="N109" s="106"/>
+      <c r="N109" s="69"/>
     </row>
     <row r="110" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="64" t="s">
+      <c r="A110" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="83"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="83"/>
+      <c r="J110" s="83"/>
+      <c r="K110" s="83"/>
+      <c r="L110" s="83"/>
+      <c r="M110" s="83"/>
+      <c r="N110" s="84"/>
+    </row>
+    <row r="112" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="65"/>
-      <c r="M110" s="65"/>
-      <c r="N110" s="66"/>
-    </row>
-    <row r="112" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="65"/>
-      <c r="M112" s="65"/>
-      <c r="N112" s="66"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="83"/>
+      <c r="J112" s="83"/>
+      <c r="K112" s="83"/>
+      <c r="L112" s="83"/>
+      <c r="M112" s="83"/>
+      <c r="N112" s="84"/>
     </row>
     <row r="113" spans="1:14" ht="39.75" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="82" t="s">
+      <c r="A113" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="78" t="s">
-        <v>237</v>
+      <c r="C113" s="90"/>
+      <c r="D113" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F113" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G113" s="13">
         <v>1</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I113" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="J113" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -5211,15 +5211,15 @@
       <c r="N113" s="28"/>
     </row>
     <row r="114" spans="1:14" ht="42.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="83"/>
-      <c r="B114" s="86"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="79"/>
+      <c r="A114" s="89"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="92"/>
       <c r="E114" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G114" s="16">
         <v>2</v>
@@ -5233,31 +5233,31 @@
       <c r="N114" s="30"/>
     </row>
     <row r="115" spans="1:14" ht="59.25" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="83"/>
-      <c r="B115" s="85" t="s">
-        <v>240</v>
+      <c r="A115" s="89"/>
+      <c r="B115" s="90" t="s">
+        <v>239</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="80"/>
+      <c r="D115" s="93"/>
       <c r="E115" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G115" s="19">
         <v>1</v>
       </c>
       <c r="H115" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="J115" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
@@ -5265,97 +5265,97 @@
       <c r="N115" s="47"/>
     </row>
     <row r="116" spans="1:14" ht="68.25" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="84"/>
-      <c r="B116" s="87"/>
+      <c r="A116" s="86"/>
+      <c r="B116" s="94"/>
       <c r="C116" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="81"/>
-      <c r="E116" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="F116" s="91" t="s">
-        <v>246</v>
+      <c r="D116" s="88"/>
+      <c r="E116" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="G116" s="48">
         <v>1</v>
       </c>
-      <c r="H116" s="92" t="s">
+      <c r="H116" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="I116" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="J116" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="K116" s="93"/>
-      <c r="L116" s="93"/>
-      <c r="M116" s="93"/>
-      <c r="N116" s="94"/>
+      <c r="I116" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="J116" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="K116" s="59"/>
+      <c r="L116" s="59"/>
+      <c r="M116" s="59"/>
+      <c r="N116" s="60"/>
     </row>
     <row r="117" spans="1:14" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="107"/>
+      <c r="E117" s="70"/>
       <c r="F117" s="9"/>
       <c r="G117" s="14"/>
-      <c r="H117" s="101"/>
-      <c r="I117" s="102"/>
-      <c r="J117" s="102"/>
-      <c r="K117" s="102"/>
-      <c r="L117" s="102"/>
-      <c r="M117" s="102"/>
-      <c r="N117" s="103"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="65"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="65"/>
+      <c r="N117" s="66"/>
     </row>
     <row r="118" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="65"/>
-      <c r="J118" s="65"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="65"/>
-      <c r="M118" s="65"/>
-      <c r="N118" s="66"/>
+      <c r="A118" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="83"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="83"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
+      <c r="N118" s="84"/>
     </row>
     <row r="119" spans="1:14" ht="96.75" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="B119" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C119" s="26"/>
-      <c r="D119" s="78" t="s">
-        <v>255</v>
-      </c>
       <c r="E119" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G119" s="13">
         <v>1</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -5363,30 +5363,30 @@
       <c r="N119" s="28"/>
     </row>
     <row r="120" spans="1:14" ht="123" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="84"/>
+      <c r="A120" s="86"/>
       <c r="B120" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C120" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="81"/>
-      <c r="E120" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="F120" s="91" t="s">
-        <v>256</v>
+      <c r="D120" s="88"/>
+      <c r="E120" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="F120" s="57" t="s">
+        <v>255</v>
       </c>
       <c r="G120" s="46">
         <v>1</v>
       </c>
       <c r="H120" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="I120" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="J120" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="I120" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="J120" s="59" t="s">
         <v>99</v>
       </c>
       <c r="K120" s="51"/>
@@ -5397,27 +5397,24 @@
     <row r="121" spans="1:14" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A118:N118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="A110:N110"/>
-    <mergeCell ref="A112:N112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:A26"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="D5:D26"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A86:N86"/>
+    <mergeCell ref="A87:A108"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="C87:C96"/>
+    <mergeCell ref="D87:D108"/>
+    <mergeCell ref="B97:B108"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A63:A84"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="D63:D84"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:A60"/>
     <mergeCell ref="B39:B48"/>
@@ -5433,24 +5430,27 @@
     <mergeCell ref="C49:C55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A63:A84"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="D63:D84"/>
-    <mergeCell ref="B73:B84"/>
-    <mergeCell ref="C73:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A86:N86"/>
-    <mergeCell ref="A87:A108"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="C87:C96"/>
-    <mergeCell ref="D87:D108"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:A26"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="D5:D26"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A118:N118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="A110:N110"/>
+    <mergeCell ref="A112:N112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="B115:B116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
